--- a/Project source code/ganttproject-builder/dist-bin/Livro1.xlsx
+++ b/Project source code/ganttproject-builder/dist-bin/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dany5\Desktop\ganttproject\ganttproject-builder\dist-bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\ganttproject\Project source code\ganttproject-builder\dist-bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9843CA7C-5569-42D5-9255-2778EB2B2E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D01FC-0A33-475A-B26A-C9C08E4E77E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2820" windowWidth="17280" windowHeight="9420" xr2:uid="{57E7BB9E-FE34-4A12-914F-67811222C44F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57E7BB9E-FE34-4A12-914F-67811222C44F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Daniel</t>
   </si>
@@ -71,13 +71,10 @@
     <t>gj.abrantes@campus.fct.unl.pt</t>
   </si>
   <si>
-    <t>Yolo</t>
-  </si>
-  <si>
     <t>yolo.pepino@campus.fct.unl.pt</t>
   </si>
   <si>
-    <t>pesoMorto</t>
+    <t>Francisco</t>
   </si>
 </sst>
 </file>
@@ -122,10 +119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -441,16 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA5D3B-3381-4A82-9FCA-20553AF133DD}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -501,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -518,25 +516,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>919191911</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Project source code/ganttproject-builder/dist-bin/Livro1.xlsx
+++ b/Project source code/ganttproject-builder/dist-bin/Livro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\ganttproject\Project source code\ganttproject-builder\dist-bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D01FC-0A33-475A-B26A-C9C08E4E77E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9EF76E-DD59-481B-8E1E-862E024AEFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57E7BB9E-FE34-4A12-914F-67811222C44F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57E7BB9E-FE34-4A12-914F-67811222C44F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Daniel</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Guilherme</t>
   </si>
   <si>
-    <t>Actor</t>
-  </si>
-  <si>
     <t>Miguel</t>
   </si>
   <si>
@@ -71,10 +68,10 @@
     <t>gj.abrantes@campus.fct.unl.pt</t>
   </si>
   <si>
-    <t>yolo.pepino@campus.fct.unl.pt</t>
-  </si>
-  <si>
     <t>Francisco</t>
+  </si>
+  <si>
+    <t>silvas@campus.fct.unl.pt</t>
   </si>
 </sst>
 </file>
@@ -440,15 +437,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -490,24 +487,24 @@
         <v>912323234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>934545469</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -516,9 +513,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>919191911</v>
